--- a/test-analysis.xlsx
+++ b/test-analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavr\Documents\GitHub\Web-Testing-Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC37A3F-7FC2-4B6D-B613-D1DD142CCE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E956799-F851-4F92-9AF3-488569004343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -111,9 +111,6 @@
     <t>The user has access to the SeleniumPractise website.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Open the SeleniumPractise website</t>
-  </si>
-  <si>
     <t>The website is successfully loaded.</t>
   </si>
   <si>
@@ -123,12 +120,6 @@
     <t>The product listing page is displayed.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Add all products to the cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	All products are successfully added to the cart.</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
@@ -322,6 +313,15 @@
   </si>
   <si>
     <t>The response is "Invalid code ..!" as expected.</t>
+  </si>
+  <si>
+    <t>System must be connected to the network.</t>
+  </si>
+  <si>
+    <t>Add all products to the cart.</t>
+  </si>
+  <si>
+    <t>All products are successfully added to the cart.</t>
   </si>
 </sst>
 </file>
@@ -546,12 +546,40 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -564,34 +592,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -923,30 +923,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="16.2" thickBot="1">
       <c r="A3" s="12"/>
@@ -1031,10 +1031,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="30"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1057,23 +1057,23 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="30.6" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18"/>
+      <c r="B6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1116,31 +1116,31 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="28.2" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="27.6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>28</v>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
@@ -1148,10 +1148,10 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="20"/>
+      <c r="B12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="30"/>
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1161,10 +1161,10 @@
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1174,23 +1174,23 @@
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="B14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="E14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="15" spans="1:6" ht="33.6" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="18"/>
+      <c r="B15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="26"/>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1236,28 +1236,28 @@
     <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="27.6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
@@ -1265,8 +1265,8 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1276,10 +1276,10 @@
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,8 +1289,8 @@
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1300,8 +1300,8 @@
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1311,8 +1311,8 @@
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1370,8 @@
       <c r="A34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="E34" s="5" t="s">
         <v>0</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="E35" s="5" t="s">
         <v>10</v>
       </c>
@@ -1392,8 +1392,8 @@
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
@@ -1426,28 +1426,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1456,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242611B2-332F-4034-BDFB-455B2DC6F743}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1476,10 +1476,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -1490,10 +1490,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -1504,10 +1504,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="28"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -1518,24 +1518,24 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -1543,28 +1543,26 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="42" thickBot="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1573,10 +1571,10 @@
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1585,70 +1583,81 @@
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="28.2" thickBot="1">
+    <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="42" thickBot="1">
+    <row r="11" spans="1:6" ht="28.2" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" thickBot="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="55.8" thickBot="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="55.8" thickBot="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1658,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9036B47-914A-4ECB-AF8A-378182E28BCD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1676,10 +1685,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -1690,10 +1699,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -1704,10 +1713,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="28"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -1718,10 +1727,10 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -1742,10 +1751,10 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>11</v>
@@ -1770,23 +1779,23 @@
     </row>
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>24</v>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>26</v>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1794,103 +1803,103 @@
     </row>
     <row r="10" spans="1:6" ht="55.8" thickBot="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>58</v>
+      <c r="B10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42" thickBot="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>60</v>
+      <c r="B11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>62</v>
+      <c r="B12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="55.8" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>64</v>
+      <c r="B13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159C9EE-4C44-4F68-9CCE-BE3D1E7D4F82}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1929,10 +1938,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -1943,10 +1952,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -1957,10 +1966,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="28"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -1971,10 +1980,10 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -1982,11 +1991,13 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -1994,79 +2005,88 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="55.8" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>72</v>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="28.2" thickBot="1">
+    <row r="8" spans="1:6" ht="55.8" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>74</v>
+      <c r="B8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="42" thickBot="1">
+    <row r="9" spans="1:6" ht="28.2" thickBot="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42" thickBot="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="55.8" thickBot="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="28" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="42" thickBot="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="55.8" thickBot="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42" thickBot="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2074,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43583770-20CD-40BC-B90F-8152E742C6FB}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2094,10 +2114,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -2108,10 +2128,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -2122,10 +2142,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="28"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2136,10 +2156,10 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -2147,11 +2167,13 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2159,28 +2181,26 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="42" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>24</v>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2188,11 +2208,11 @@
     </row>
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>26</v>
+      <c r="B8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2200,68 +2220,79 @@
     </row>
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.2" thickBot="1">
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42" thickBot="1">
+      <c r="B10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.2" thickBot="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>46</v>
+      <c r="B11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42" thickBot="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.2" thickBot="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="28" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="42" thickBot="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.2" thickBot="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="29" t="s">
+      <c r="C15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42" thickBot="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="30"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2289,8 +2320,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -2301,8 +2332,8 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -2313,8 +2344,8 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2325,8 +2356,8 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -2337,8 +2368,8 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2389,8 +2420,8 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -2401,8 +2432,8 @@
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -2413,8 +2444,8 @@
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -2425,8 +2456,8 @@
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -2437,8 +2468,8 @@
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>11</v>

--- a/test-analysis.xlsx
+++ b/test-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C41AE0-4997-478E-BB9C-FBB60563A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85993B05-2828-4E98-A4A6-DB5496DA66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="130">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>In the "Rice" product the price after the discount (46) is greater than the original price (37).</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -712,12 +718,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -731,36 +731,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,6 +758,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5E904-0AC9-4BED-A871-AC80F7C33B3B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -1121,79 +1124,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="37">
+        <v>45282</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1210,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1229,53 +1293,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" ht="30.6" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1298,8 +1362,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1307,68 +1371,68 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.2" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="C11" s="33"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="33.6" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
@@ -1391,20 +1455,20 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.2" thickBot="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1413,10 +1477,10 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="36"/>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1428,10 +1492,10 @@
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="34"/>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
@@ -1443,10 +1507,10 @@
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="34"/>
       <c r="E25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1458,25 +1522,25 @@
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="34"/>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="55.8" thickBot="1">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
@@ -1485,11 +1549,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1508,87 +1572,92 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.2" thickBot="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.2" thickBot="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.2" thickBot="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.2" thickBot="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.2" thickBot="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.2" thickBot="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" thickBot="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A5:A6"/>
@@ -1602,11 +1671,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -1620,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242611B2-332F-4034-BDFB-455B2DC6F743}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1638,10 +1702,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1650,10 +1714,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1662,10 +1726,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1674,26 +1738,26 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1783,7 +1847,7 @@
       <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1799,10 +1863,10 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="36"/>
       <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
@@ -1814,10 +1878,10 @@
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="34"/>
       <c r="E19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1829,10 +1893,10 @@
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="34"/>
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1844,10 +1908,10 @@
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="34"/>
       <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1856,24 +1920,24 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="32"/>
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
@@ -1941,7 +2005,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.2" thickBot="1">
-      <c r="A31" s="32"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="6" t="s">
         <v>42</v>
       </c>
@@ -1950,16 +2014,23 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="42" thickBot="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="26" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -1967,13 +2038,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1984,7 +2048,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2001,81 +2065,59 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -2088,29 +2130,23 @@
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4"/>
@@ -2119,43 +2155,43 @@
     </row>
     <row r="10" spans="1:6" ht="55.8" thickBot="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42" thickBot="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="55.8" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" thickBot="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2180,7 +2216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159C9EE-4C44-4F68-9CCE-BE3D1E7D4F82}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
@@ -2198,10 +2234,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -2214,10 +2250,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -2230,10 +2266,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2246,10 +2282,10 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -2259,13 +2295,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="42" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2275,11 +2311,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -2302,10 +2338,10 @@
     </row>
     <row r="8" spans="1:6" ht="55.8" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="4"/>
@@ -2314,37 +2350,37 @@
     </row>
     <row r="9" spans="1:6" ht="28.2" thickBot="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="55.8" thickBot="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2367,7 +2403,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2384,83 +2420,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -2472,16 +2478,13 @@
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4"/>
@@ -2490,69 +2493,69 @@
     </row>
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.2" thickBot="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.2" thickBot="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42" thickBot="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2590,8 +2593,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -2602,8 +2605,8 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -2614,8 +2617,8 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2626,8 +2629,8 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -2638,8 +2641,8 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2690,8 +2693,8 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -2702,8 +2705,8 @@
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -2714,8 +2717,8 @@
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -2726,8 +2729,8 @@
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -2738,8 +2741,8 @@
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>11</v>

--- a/test-analysis.xlsx
+++ b/test-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stavr\Documents\GitHub\Web-Testing-Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85993B05-2828-4E98-A4A6-DB5496DA66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D2B8C7-6419-4E98-A58E-8A475592C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>US2: Complete Order for the products in the cart</t>
-  </si>
-  <si>
-    <t>Verify Completing an Order</t>
   </si>
   <si>
     <t>This test case aims to validate the functionality of completing an order on the SeleniumPractise website, including adding products to the cart, navigating to the cart, proceeding to checkout, and completing the order.</t>
@@ -760,38 +757,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5E904-0AC9-4BED-A871-AC80F7C33B3B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1124,40 +1121,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="16.2" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="27">
         <v>45282</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1166,27 +1163,27 @@
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="27">
         <v>45282</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="37">
+        <v>83</v>
+      </c>
+      <c r="B5" s="27">
         <v>45282</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1194,67 +1191,67 @@
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="27">
         <v>45282</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="16.2" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="37">
+        <v>104</v>
+      </c>
+      <c r="B7" s="27">
         <v>45282</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="16.2" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="37">
+        <v>44</v>
+      </c>
+      <c r="B8" s="27">
         <v>45282</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="16.2" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="37">
+        <v>57</v>
+      </c>
+      <c r="B9" s="27">
         <v>45282</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="16.2" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="37">
+        <v>68</v>
+      </c>
+      <c r="B10" s="27">
         <v>45282</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1274,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1293,53 +1290,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" ht="30.6" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1355,7 +1352,7 @@
     <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
@@ -1373,10 +1370,10 @@
     <row r="10" spans="1:3" ht="28.2" thickBot="1">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" thickBot="1">
@@ -1386,53 +1383,53 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:3" ht="33.6" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="32"/>
+      <c r="B16" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
@@ -1448,7 +1445,7 @@
     <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>22</v>
@@ -1477,83 +1474,83 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="36"/>
+      <c r="B23" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="31"/>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.2" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="34"/>
+      <c r="B25" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="60.6" customHeight="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="34"/>
+      <c r="B26" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="33"/>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="55.8" thickBot="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="32"/>
+      <c r="B27" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="35"/>
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="35"/>
       <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1573,7 +1570,7 @@
     <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>22</v>
@@ -1582,7 +1579,7 @@
     <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="5"/>
       <c r="B31" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>24</v>
@@ -1591,73 +1588,68 @@
     <row r="32" spans="1:6" ht="28.2" thickBot="1">
       <c r="A32" s="5"/>
       <c r="B32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.2" thickBot="1">
       <c r="A33" s="5"/>
       <c r="B33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.2" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.2" thickBot="1">
       <c r="A35" s="5"/>
       <c r="B35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.2" thickBot="1">
       <c r="A36" s="5"/>
       <c r="B36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.2" thickBot="1">
       <c r="A37" s="5"/>
       <c r="B37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" thickBot="1">
       <c r="A38" s="6"/>
       <c r="B38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A5:A6"/>
@@ -1674,6 +1666,11 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1684,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242611B2-332F-4034-BDFB-455B2DC6F743}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1702,10 +1699,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1714,10 +1711,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1726,10 +1723,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="33"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1738,26 +1735,26 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1773,7 +1770,7 @@
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
@@ -1782,7 +1779,7 @@
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
@@ -1791,64 +1788,64 @@
     <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.2" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" thickBot="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42" thickBot="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42" thickBot="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1">
@@ -1856,88 +1853,88 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="36"/>
+      <c r="B18" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" customHeight="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="34"/>
+      <c r="B20" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="33"/>
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.2" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="34"/>
+      <c r="B21" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="33"/>
       <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="32"/>
+      <c r="B22" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="32"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
@@ -1953,7 +1950,7 @@
     <row r="25" spans="1:6" ht="42" thickBot="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>22</v>
@@ -1962,7 +1959,7 @@
     <row r="26" spans="1:6" ht="42" thickBot="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -1971,59 +1968,66 @@
     <row r="27" spans="1:6" ht="42" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.2" thickBot="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42" thickBot="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42" thickBot="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.2" thickBot="1">
       <c r="A31" s="20"/>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42" thickBot="1">
       <c r="A32" s="25"/>
       <c r="B32" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2031,13 +2035,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2048,7 +2045,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2065,58 +2062,58 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="36"/>
+      <c r="B1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="33"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="33"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="35"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
@@ -2134,7 +2131,7 @@
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>22</v>
@@ -2144,7 +2141,7 @@
     <row r="9" spans="1:6" ht="42" thickBot="1">
       <c r="A9" s="5"/>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>24</v>
@@ -2156,46 +2153,46 @@
     <row r="10" spans="1:6" ht="55.8" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42" thickBot="1">
       <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="55.8" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2214,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2234,88 +2231,88 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="36"/>
+      <c r="B1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="31"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="33"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="33"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="73.2" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="35"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="35"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -2339,10 +2336,10 @@
     <row r="8" spans="1:6" ht="55.8" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2351,37 +2348,37 @@
     <row r="9" spans="1:6" ht="28.2" thickBot="1">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="55.8" thickBot="1">
       <c r="A11" s="5"/>
       <c r="B11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2402,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43583770-20CD-40BC-B90F-8152E742C6FB}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2420,53 +2417,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="36"/>
+      <c r="B1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -2482,7 +2479,7 @@
     <row r="8" spans="1:6" ht="42" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>22</v>
@@ -2503,55 +2500,55 @@
     <row r="10" spans="1:6" ht="42" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.2" thickBot="1">
       <c r="A11" s="5"/>
       <c r="B11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.2" thickBot="1">
       <c r="A14" s="6"/>
       <c r="B14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42" thickBot="1">
       <c r="A15" s="6"/>
       <c r="B15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2593,8 +2590,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -2605,8 +2602,8 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -2617,8 +2614,8 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2629,8 +2626,8 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -2641,8 +2638,8 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -2693,8 +2690,8 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -2705,8 +2702,8 @@
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
         <v>9</v>
@@ -2717,8 +2714,8 @@
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -2729,8 +2726,8 @@
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -2741,8 +2738,8 @@
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
         <v>11</v>
